--- a/Output/instrument_data_ogdi_years/ag_census_2013-2022.xlsx
+++ b/Output/instrument_data_ogdi_years/ag_census_2013-2022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="356">
   <si>
     <t>country</t>
   </si>
@@ -1010,6 +1010,66 @@
     <t>TJK</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>Agriculture Census</t>
   </si>
   <si>
@@ -1020,12 +1080,6 @@
   </si>
   <si>
     <t>http://www.fao.org/world-census-agriculture/wcarounds/en/</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2010</t>
   </si>
 </sst>
 </file>
@@ -1109,23 +1163,23 @@
       <c r="B2" t="s">
         <v>171</v>
       </c>
-      <c r="C2" t="n">
-        <v>2021.0</v>
+      <c r="C2" t="s">
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F2" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G2" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3">
@@ -1135,23 +1189,23 @@
       <c r="B3" t="s">
         <v>172</v>
       </c>
-      <c r="C3" t="n">
-        <v>2020.0</v>
+      <c r="C3" t="s">
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
@@ -1161,23 +1215,23 @@
       <c r="B4" t="s">
         <v>173</v>
       </c>
-      <c r="C4" t="n">
-        <v>2025.0</v>
+      <c r="C4" t="s">
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5">
@@ -1187,23 +1241,23 @@
       <c r="B5" t="s">
         <v>174</v>
       </c>
-      <c r="C5" t="n">
-        <v>2020.0</v>
+      <c r="C5" t="s">
+        <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G5" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6">
@@ -1213,23 +1267,23 @@
       <c r="B6" t="s">
         <v>175</v>
       </c>
-      <c r="C6" t="n">
-        <v>2022.0</v>
+      <c r="C6" t="s">
+        <v>335</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E6" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G6" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7">
@@ -1239,23 +1293,23 @@
       <c r="B7" t="s">
         <v>176</v>
       </c>
-      <c r="C7" t="n">
-        <v>2025.0</v>
+      <c r="C7" t="s">
+        <v>334</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F7" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G7" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
@@ -1265,23 +1319,23 @@
       <c r="B8" t="s">
         <v>177</v>
       </c>
-      <c r="C8" t="n">
-        <v>2022.0</v>
+      <c r="C8" t="s">
+        <v>335</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E8" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F8" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G8" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9">
@@ -1291,23 +1345,23 @@
       <c r="B9" t="s">
         <v>178</v>
       </c>
-      <c r="C9" t="n">
-        <v>2021.0</v>
+      <c r="C9" t="s">
+        <v>332</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E9" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F9" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G9" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10">
@@ -1317,23 +1371,23 @@
       <c r="B10" t="s">
         <v>179</v>
       </c>
-      <c r="C10" t="n">
-        <v>2015.0</v>
+      <c r="C10" t="s">
+        <v>336</v>
       </c>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E10" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G10" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11">
@@ -1343,23 +1397,23 @@
       <c r="B11" t="s">
         <v>179</v>
       </c>
-      <c r="C11" t="n">
-        <v>2021.0</v>
+      <c r="C11" t="s">
+        <v>332</v>
       </c>
       <c r="D11" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E11" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F11" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G11" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12">
@@ -1369,23 +1423,23 @@
       <c r="B12" t="s">
         <v>180</v>
       </c>
-      <c r="C12" t="n">
-        <v>2016.0</v>
+      <c r="C12" t="s">
+        <v>337</v>
       </c>
       <c r="D12" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E12" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F12" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G12" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13">
@@ -1395,23 +1449,23 @@
       <c r="B13" t="s">
         <v>180</v>
       </c>
-      <c r="C13" t="n">
-        <v>2020.0</v>
+      <c r="C13" t="s">
+        <v>333</v>
       </c>
       <c r="D13" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F13" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G13" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14">
@@ -1421,23 +1475,23 @@
       <c r="B14" t="s">
         <v>181</v>
       </c>
-      <c r="C14" t="n">
-        <v>2022.0</v>
+      <c r="C14" t="s">
+        <v>335</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F14" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G14" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15">
@@ -1447,23 +1501,23 @@
       <c r="B15" t="s">
         <v>182</v>
       </c>
-      <c r="C15" t="n">
-        <v>2021.0</v>
+      <c r="C15" t="s">
+        <v>332</v>
       </c>
       <c r="D15" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E15" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F15" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G15" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16">
@@ -1473,23 +1527,23 @@
       <c r="B16" t="s">
         <v>183</v>
       </c>
-      <c r="C16" t="n">
-        <v>2025.0</v>
+      <c r="C16" t="s">
+        <v>334</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E16" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F16" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G16" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17">
@@ -1499,23 +1553,23 @@
       <c r="B17" t="s">
         <v>184</v>
       </c>
-      <c r="C17" t="n">
-        <v>2022.0</v>
+      <c r="C17" t="s">
+        <v>335</v>
       </c>
       <c r="D17" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E17" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F17" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G17" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18">
@@ -1525,23 +1579,23 @@
       <c r="B18" t="s">
         <v>185</v>
       </c>
-      <c r="C18" t="n">
-        <v>2020.0</v>
+      <c r="C18" t="s">
+        <v>333</v>
       </c>
       <c r="D18" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F18" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G18" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19">
@@ -1551,23 +1605,23 @@
       <c r="B19" t="s">
         <v>186</v>
       </c>
-      <c r="C19" t="n">
-        <v>2019.0</v>
+      <c r="C19" t="s">
+        <v>338</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E19" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F19" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G19" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20">
@@ -1577,23 +1631,23 @@
       <c r="B20" t="s">
         <v>187</v>
       </c>
-      <c r="C20" t="n">
-        <v>2020.0</v>
+      <c r="C20" t="s">
+        <v>333</v>
       </c>
       <c r="D20" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E20" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F20" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G20" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21">
@@ -1603,23 +1657,23 @@
       <c r="B21" t="s">
         <v>188</v>
       </c>
-      <c r="C21" t="n">
-        <v>2020.0</v>
+      <c r="C21" t="s">
+        <v>333</v>
       </c>
       <c r="D21" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E21" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G21" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H21" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22">
@@ -1629,23 +1683,23 @@
       <c r="B22" t="s">
         <v>189</v>
       </c>
-      <c r="C22" t="n">
-        <v>2021.0</v>
+      <c r="C22" t="s">
+        <v>332</v>
       </c>
       <c r="D22" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E22" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F22" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G22" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23">
@@ -1655,23 +1709,23 @@
       <c r="B23" t="s">
         <v>190</v>
       </c>
-      <c r="C23" t="n">
-        <v>2020.0</v>
+      <c r="C23" t="s">
+        <v>333</v>
       </c>
       <c r="D23" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E23" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F23" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G23" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24">
@@ -1681,23 +1735,23 @@
       <c r="B24" t="s">
         <v>191</v>
       </c>
-      <c r="C24" t="n">
-        <v>2021.0</v>
+      <c r="C24" t="s">
+        <v>332</v>
       </c>
       <c r="D24" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E24" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G24" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25">
@@ -1707,23 +1761,23 @@
       <c r="B25" t="s">
         <v>192</v>
       </c>
-      <c r="C25" t="n">
-        <v>2020.0</v>
+      <c r="C25" t="s">
+        <v>333</v>
       </c>
       <c r="D25" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E25" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F25" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G25" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26">
@@ -1733,23 +1787,23 @@
       <c r="B26" t="s">
         <v>193</v>
       </c>
-      <c r="C26" t="n">
-        <v>2016.0</v>
+      <c r="C26" t="s">
+        <v>337</v>
       </c>
       <c r="D26" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E26" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F26" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G26" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H26" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27">
@@ -1759,23 +1813,23 @@
       <c r="B27" t="s">
         <v>194</v>
       </c>
-      <c r="C27" t="n">
-        <v>2024.0</v>
+      <c r="C27" t="s">
+        <v>339</v>
       </c>
       <c r="D27" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E27" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F27" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G27" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H27" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28">
@@ -1785,23 +1839,23 @@
       <c r="B28" t="s">
         <v>195</v>
       </c>
-      <c r="C28" t="n">
-        <v>2022.0</v>
+      <c r="C28" t="s">
+        <v>335</v>
       </c>
       <c r="D28" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E28" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F28" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G28" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29">
@@ -1811,23 +1865,23 @@
       <c r="B29" t="s">
         <v>196</v>
       </c>
-      <c r="C29" t="n">
-        <v>2020.0</v>
+      <c r="C29" t="s">
+        <v>333</v>
       </c>
       <c r="D29" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E29" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F29" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G29" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30">
@@ -1837,23 +1891,23 @@
       <c r="B30" t="s">
         <v>197</v>
       </c>
-      <c r="C30" t="n">
-        <v>2022.0</v>
+      <c r="C30" t="s">
+        <v>335</v>
       </c>
       <c r="D30" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E30" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F30" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G30" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H30" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31">
@@ -1863,23 +1917,23 @@
       <c r="B31" t="s">
         <v>198</v>
       </c>
-      <c r="C31" t="n">
-        <v>2017.0</v>
+      <c r="C31" t="s">
+        <v>340</v>
       </c>
       <c r="D31" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E31" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F31" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G31" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H31" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32">
@@ -1889,23 +1943,23 @@
       <c r="B32" t="s">
         <v>198</v>
       </c>
-      <c r="C32" t="n">
-        <v>2022.0</v>
+      <c r="C32" t="s">
+        <v>335</v>
       </c>
       <c r="D32" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E32" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F32" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G32" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H32" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33">
@@ -1915,23 +1969,23 @@
       <c r="B33" t="s">
         <v>199</v>
       </c>
-      <c r="C33" t="n">
-        <v>2023.0</v>
+      <c r="C33" t="s">
+        <v>341</v>
       </c>
       <c r="D33" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E33" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F33" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G33" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34">
@@ -1941,23 +1995,23 @@
       <c r="B34" t="s">
         <v>200</v>
       </c>
-      <c r="C34" t="n">
-        <v>2020.0</v>
+      <c r="C34" t="s">
+        <v>333</v>
       </c>
       <c r="D34" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F34" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G34" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35">
@@ -1967,23 +2021,23 @@
       <c r="B35" t="s">
         <v>201</v>
       </c>
-      <c r="C35" t="n">
-        <v>2022.0</v>
+      <c r="C35" t="s">
+        <v>335</v>
       </c>
       <c r="D35" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E35" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F35" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G35" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36">
@@ -1993,23 +2047,23 @@
       <c r="B36" t="s">
         <v>202</v>
       </c>
-      <c r="C36" t="n">
-        <v>2025.0</v>
+      <c r="C36" t="s">
+        <v>334</v>
       </c>
       <c r="D36" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E36" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F36" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G36" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H36" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37">
@@ -2019,23 +2073,23 @@
       <c r="B37" t="s">
         <v>203</v>
       </c>
-      <c r="C37" t="n">
-        <v>2021.0</v>
+      <c r="C37" t="s">
+        <v>332</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E37" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F37" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G37" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H37" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
@@ -2045,23 +2099,23 @@
       <c r="B38" t="s">
         <v>204</v>
       </c>
-      <c r="C38" t="n">
-        <v>2018.0</v>
+      <c r="C38" t="s">
+        <v>342</v>
       </c>
       <c r="D38" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E38" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F38" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G38" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H38" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39">
@@ -2071,23 +2125,23 @@
       <c r="B39" t="s">
         <v>204</v>
       </c>
-      <c r="C39" t="n">
-        <v>2022.0</v>
+      <c r="C39" t="s">
+        <v>335</v>
       </c>
       <c r="D39" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E39" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G39" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H39" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40">
@@ -2097,23 +2151,23 @@
       <c r="B40" t="s">
         <v>205</v>
       </c>
-      <c r="C40" t="n">
-        <v>2022.0</v>
+      <c r="C40" t="s">
+        <v>335</v>
       </c>
       <c r="D40" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E40" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F40" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G40" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H40" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41">
@@ -2123,23 +2177,23 @@
       <c r="B41" t="s">
         <v>206</v>
       </c>
-      <c r="C41" t="n">
-        <v>2019.0</v>
+      <c r="C41" t="s">
+        <v>338</v>
       </c>
       <c r="D41" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E41" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F41" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G41" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H41" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42">
@@ -2149,23 +2203,23 @@
       <c r="B42" t="s">
         <v>207</v>
       </c>
-      <c r="C42" t="n">
-        <v>2016.0</v>
+      <c r="C42" t="s">
+        <v>337</v>
       </c>
       <c r="D42" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E42" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F42" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G42" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H42" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43">
@@ -2175,23 +2229,23 @@
       <c r="B43" t="s">
         <v>207</v>
       </c>
-      <c r="C43" t="n">
-        <v>2021.0</v>
+      <c r="C43" t="s">
+        <v>332</v>
       </c>
       <c r="D43" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E43" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F43" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G43" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H43" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
@@ -2201,23 +2255,23 @@
       <c r="B44" t="s">
         <v>208</v>
       </c>
-      <c r="C44" t="n">
-        <v>2025.0</v>
+      <c r="C44" t="s">
+        <v>334</v>
       </c>
       <c r="D44" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E44" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F44" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G44" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H44" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45">
@@ -2227,23 +2281,23 @@
       <c r="B45" t="s">
         <v>209</v>
       </c>
-      <c r="C45" t="n">
-        <v>2022.0</v>
+      <c r="C45" t="s">
+        <v>335</v>
       </c>
       <c r="D45" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E45" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F45" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G45" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H45" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46">
@@ -2253,23 +2307,23 @@
       <c r="B46" t="s">
         <v>210</v>
       </c>
-      <c r="C46" t="n">
-        <v>2023.0</v>
+      <c r="C46" t="s">
+        <v>341</v>
       </c>
       <c r="D46" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E46" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F46" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G46" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47">
@@ -2279,23 +2333,23 @@
       <c r="B47" t="s">
         <v>211</v>
       </c>
-      <c r="C47" t="n">
-        <v>2022.0</v>
+      <c r="C47" t="s">
+        <v>335</v>
       </c>
       <c r="D47" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E47" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F47" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G47" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H47" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48">
@@ -2305,23 +2359,23 @@
       <c r="B48" t="s">
         <v>212</v>
       </c>
-      <c r="C48" t="n">
-        <v>2020.0</v>
+      <c r="C48" t="s">
+        <v>333</v>
       </c>
       <c r="D48" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E48" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F48" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G48" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49">
@@ -2331,23 +2385,23 @@
       <c r="B49" t="s">
         <v>213</v>
       </c>
-      <c r="C49" t="n">
-        <v>2022.0</v>
+      <c r="C49" t="s">
+        <v>335</v>
       </c>
       <c r="D49" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E49" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F49" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G49" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H49" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50">
@@ -2357,23 +2411,23 @@
       <c r="B50" t="s">
         <v>214</v>
       </c>
-      <c r="C50" t="n">
-        <v>2021.0</v>
+      <c r="C50" t="s">
+        <v>332</v>
       </c>
       <c r="D50" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E50" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F50" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G50" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H50" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51">
@@ -2383,23 +2437,23 @@
       <c r="B51" t="s">
         <v>215</v>
       </c>
-      <c r="C51" t="n">
-        <v>2020.0</v>
+      <c r="C51" t="s">
+        <v>333</v>
       </c>
       <c r="D51" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E51" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F51" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G51" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H51" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52">
@@ -2409,23 +2463,23 @@
       <c r="B52" t="s">
         <v>216</v>
       </c>
-      <c r="C52" t="n">
-        <v>2023.0</v>
+      <c r="C52" t="s">
+        <v>341</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E52" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F52" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G52" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H52" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53">
@@ -2435,23 +2489,23 @@
       <c r="B53" t="s">
         <v>217</v>
       </c>
-      <c r="C53" t="n">
-        <v>2018.0</v>
+      <c r="C53" t="s">
+        <v>342</v>
       </c>
       <c r="D53" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E53" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F53" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G53" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H53" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54">
@@ -2461,23 +2515,23 @@
       <c r="B54" t="s">
         <v>217</v>
       </c>
-      <c r="C54" t="n">
-        <v>2022.0</v>
+      <c r="C54" t="s">
+        <v>335</v>
       </c>
       <c r="D54" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E54" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F54" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G54" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H54" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55">
@@ -2487,23 +2541,23 @@
       <c r="B55" t="s">
         <v>218</v>
       </c>
-      <c r="C55" t="n">
-        <v>2022.0</v>
+      <c r="C55" t="s">
+        <v>335</v>
       </c>
       <c r="D55" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E55" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F55" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G55" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H55" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56">
@@ -2513,23 +2567,23 @@
       <c r="B56" t="s">
         <v>219</v>
       </c>
-      <c r="C56" t="n">
-        <v>2022.0</v>
+      <c r="C56" t="s">
+        <v>335</v>
       </c>
       <c r="D56" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E56" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F56" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G56" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H56" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57">
@@ -2539,23 +2593,23 @@
       <c r="B57" t="s">
         <v>220</v>
       </c>
-      <c r="C57" t="n">
-        <v>2022.0</v>
+      <c r="C57" t="s">
+        <v>335</v>
       </c>
       <c r="D57" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E57" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F57" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G57" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H57" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58">
@@ -2565,23 +2619,23 @@
       <c r="B58" t="s">
         <v>221</v>
       </c>
-      <c r="C58" t="n">
-        <v>2017.0</v>
+      <c r="C58" t="s">
+        <v>340</v>
       </c>
       <c r="D58" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E58" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F58" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G58" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H58" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59">
@@ -2591,23 +2645,23 @@
       <c r="B59" t="s">
         <v>221</v>
       </c>
-      <c r="C59" t="n">
-        <v>2022.0</v>
+      <c r="C59" t="s">
+        <v>335</v>
       </c>
       <c r="D59" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E59" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F59" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G59" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H59" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60">
@@ -2617,23 +2671,23 @@
       <c r="B60" t="s">
         <v>222</v>
       </c>
-      <c r="C60" t="n">
-        <v>2018.0</v>
+      <c r="C60" t="s">
+        <v>342</v>
       </c>
       <c r="D60" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E60" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F60" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G60" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H60" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61">
@@ -2643,23 +2697,23 @@
       <c r="B61" t="s">
         <v>222</v>
       </c>
-      <c r="C61" t="n">
-        <v>2022.0</v>
+      <c r="C61" t="s">
+        <v>335</v>
       </c>
       <c r="D61" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E61" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F61" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G61" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H61" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62">
@@ -2669,23 +2723,23 @@
       <c r="B62" t="s">
         <v>223</v>
       </c>
-      <c r="C62" t="n">
-        <v>2019.0</v>
+      <c r="C62" t="s">
+        <v>338</v>
       </c>
       <c r="D62" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E62" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F62" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G62" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H62" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63">
@@ -2695,23 +2749,23 @@
       <c r="B63" t="s">
         <v>224</v>
       </c>
-      <c r="C63" t="n">
-        <v>2023.0</v>
+      <c r="C63" t="s">
+        <v>341</v>
       </c>
       <c r="D63" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E63" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F63" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G63" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H63" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64">
@@ -2721,23 +2775,23 @@
       <c r="B64" t="s">
         <v>225</v>
       </c>
-      <c r="C64" t="n">
-        <v>2017.0</v>
+      <c r="C64" t="s">
+        <v>340</v>
       </c>
       <c r="D64" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E64" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F64" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G64" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H64" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65">
@@ -2747,23 +2801,23 @@
       <c r="B65" t="s">
         <v>226</v>
       </c>
-      <c r="C65" t="n">
-        <v>2021.0</v>
+      <c r="C65" t="s">
+        <v>332</v>
       </c>
       <c r="D65" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E65" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F65" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G65" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H65" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66">
@@ -2773,23 +2827,23 @@
       <c r="B66" t="s">
         <v>227</v>
       </c>
-      <c r="C66" t="n">
-        <v>2025.0</v>
+      <c r="C66" t="s">
+        <v>334</v>
       </c>
       <c r="D66" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E66" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F66" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G66" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H66" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67">
@@ -2799,23 +2853,23 @@
       <c r="B67" t="s">
         <v>228</v>
       </c>
-      <c r="C67" t="n">
-        <v>2020.0</v>
+      <c r="C67" t="s">
+        <v>333</v>
       </c>
       <c r="D67" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E67" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F67" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G67" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H67" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68">
@@ -2825,23 +2879,23 @@
       <c r="B68" t="s">
         <v>229</v>
       </c>
-      <c r="C68" t="n">
-        <v>2022.0</v>
+      <c r="C68" t="s">
+        <v>335</v>
       </c>
       <c r="D68" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E68" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F68" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G68" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H68" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69">
@@ -2851,23 +2905,23 @@
       <c r="B69" t="s">
         <v>230</v>
       </c>
-      <c r="C69" t="n">
-        <v>2022.0</v>
+      <c r="C69" t="s">
+        <v>335</v>
       </c>
       <c r="D69" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E69" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F69" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G69" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H69" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70">
@@ -2877,23 +2931,23 @@
       <c r="B70" t="s">
         <v>231</v>
       </c>
-      <c r="C70" t="n">
-        <v>2022.0</v>
+      <c r="C70" t="s">
+        <v>335</v>
       </c>
       <c r="D70" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E70" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F70" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G70" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H70" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71">
@@ -2903,23 +2957,23 @@
       <c r="B71" t="s">
         <v>232</v>
       </c>
-      <c r="C71" t="n">
-        <v>2022.0</v>
+      <c r="C71" t="s">
+        <v>335</v>
       </c>
       <c r="D71" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E71" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F71" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G71" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H71" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72">
@@ -2929,23 +2983,23 @@
       <c r="B72" t="s">
         <v>233</v>
       </c>
-      <c r="C72" t="n">
-        <v>2021.0</v>
+      <c r="C72" t="s">
+        <v>332</v>
       </c>
       <c r="D72" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E72" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F72" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G72" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H72" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73">
@@ -2955,23 +3009,23 @@
       <c r="B73" t="s">
         <v>234</v>
       </c>
-      <c r="C73" t="n">
-        <v>2024.0</v>
+      <c r="C73" t="s">
+        <v>339</v>
       </c>
       <c r="D73" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E73" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F73" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G73" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H73" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74">
@@ -2981,23 +3035,23 @@
       <c r="B74" t="s">
         <v>235</v>
       </c>
-      <c r="C74" t="n">
-        <v>2025.0</v>
+      <c r="C74" t="s">
+        <v>334</v>
       </c>
       <c r="D74" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E74" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F74" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G74" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H74" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75">
@@ -3007,23 +3061,23 @@
       <c r="B75" t="s">
         <v>236</v>
       </c>
-      <c r="C75" t="n">
-        <v>2020.0</v>
+      <c r="C75" t="s">
+        <v>333</v>
       </c>
       <c r="D75" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E75" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F75" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G75" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H75" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76">
@@ -3033,23 +3087,23 @@
       <c r="B76" t="s">
         <v>237</v>
       </c>
-      <c r="C76" t="n">
-        <v>2019.0</v>
+      <c r="C76" t="s">
+        <v>338</v>
       </c>
       <c r="D76" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E76" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F76" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G76" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H76" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77">
@@ -3059,23 +3113,23 @@
       <c r="B77" t="s">
         <v>238</v>
       </c>
-      <c r="C77" t="n">
-        <v>2023.0</v>
+      <c r="C77" t="s">
+        <v>341</v>
       </c>
       <c r="D77" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E77" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F77" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G77" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H77" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78">
@@ -3085,23 +3139,23 @@
       <c r="B78" t="s">
         <v>239</v>
       </c>
-      <c r="C78" t="n">
-        <v>2016.0</v>
+      <c r="C78" t="s">
+        <v>337</v>
       </c>
       <c r="D78" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E78" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F78" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G78" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H78" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79">
@@ -3111,23 +3165,23 @@
       <c r="B79" t="s">
         <v>240</v>
       </c>
-      <c r="C79" t="n">
-        <v>2021.0</v>
+      <c r="C79" t="s">
+        <v>332</v>
       </c>
       <c r="D79" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E79" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F79" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G79" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H79" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80">
@@ -3137,23 +3191,23 @@
       <c r="B80" t="s">
         <v>241</v>
       </c>
-      <c r="C80" t="n">
-        <v>2023.0</v>
+      <c r="C80" t="s">
+        <v>341</v>
       </c>
       <c r="D80" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E80" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F80" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G80" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H80" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81">
@@ -3163,23 +3217,23 @@
       <c r="B81" t="s">
         <v>242</v>
       </c>
-      <c r="C81" t="n">
-        <v>2016.0</v>
+      <c r="C81" t="s">
+        <v>337</v>
       </c>
       <c r="D81" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E81" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F81" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G81" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H81" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82">
@@ -3189,23 +3243,23 @@
       <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="C82" t="n">
-        <v>2023.0</v>
+      <c r="C82" t="s">
+        <v>341</v>
       </c>
       <c r="D82" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E82" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F82" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G82" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H82" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83">
@@ -3215,23 +3269,23 @@
       <c r="B83" t="s">
         <v>244</v>
       </c>
-      <c r="C83" t="n">
-        <v>2017.0</v>
+      <c r="C83" t="s">
+        <v>340</v>
       </c>
       <c r="D83" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E83" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F83" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G83" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H83" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84">
@@ -3241,23 +3295,23 @@
       <c r="B84" t="s">
         <v>245</v>
       </c>
-      <c r="C84" t="n">
-        <v>2020.0</v>
+      <c r="C84" t="s">
+        <v>333</v>
       </c>
       <c r="D84" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E84" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F84" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G84" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H84" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85">
@@ -3267,23 +3321,23 @@
       <c r="B85" t="s">
         <v>246</v>
       </c>
-      <c r="C85" t="n">
-        <v>2017.0</v>
+      <c r="C85" t="s">
+        <v>340</v>
       </c>
       <c r="D85" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E85" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F85" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G85" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H85" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86">
@@ -3293,23 +3347,23 @@
       <c r="B86" t="s">
         <v>247</v>
       </c>
-      <c r="C86" t="n">
-        <v>2020.0</v>
+      <c r="C86" t="s">
+        <v>333</v>
       </c>
       <c r="D86" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E86" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F86" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G86" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H86" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87">
@@ -3319,23 +3373,23 @@
       <c r="B87" t="s">
         <v>248</v>
       </c>
-      <c r="C87" t="n">
-        <v>2024.0</v>
+      <c r="C87" t="s">
+        <v>339</v>
       </c>
       <c r="D87" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E87" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F87" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G87" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H87" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88">
@@ -3345,23 +3399,23 @@
       <c r="B88" t="s">
         <v>249</v>
       </c>
-      <c r="C88" t="n">
-        <v>2020.0</v>
+      <c r="C88" t="s">
+        <v>333</v>
       </c>
       <c r="D88" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E88" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F88" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G88" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H88" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89">
@@ -3371,23 +3425,23 @@
       <c r="B89" t="s">
         <v>250</v>
       </c>
-      <c r="C89" t="n">
-        <v>2022.0</v>
+      <c r="C89" t="s">
+        <v>335</v>
       </c>
       <c r="D89" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E89" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F89" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G89" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H89" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90">
@@ -3397,23 +3451,23 @@
       <c r="B90" t="s">
         <v>251</v>
       </c>
-      <c r="C90" t="n">
-        <v>2022.0</v>
+      <c r="C90" t="s">
+        <v>335</v>
       </c>
       <c r="D90" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E90" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F90" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G90" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H90" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91">
@@ -3423,23 +3477,23 @@
       <c r="B91" t="s">
         <v>252</v>
       </c>
-      <c r="C91" t="n">
-        <v>2022.0</v>
+      <c r="C91" t="s">
+        <v>335</v>
       </c>
       <c r="D91" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E91" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F91" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G91" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H91" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92">
@@ -3449,23 +3503,23 @@
       <c r="B92" t="s">
         <v>253</v>
       </c>
-      <c r="C92" t="n">
-        <v>2022.0</v>
+      <c r="C92" t="s">
+        <v>335</v>
       </c>
       <c r="D92" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E92" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F92" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G92" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H92" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93">
@@ -3475,23 +3529,23 @@
       <c r="B93" t="s">
         <v>254</v>
       </c>
-      <c r="C93" t="n">
-        <v>2020.0</v>
+      <c r="C93" t="s">
+        <v>333</v>
       </c>
       <c r="D93" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E93" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F93" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G93" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H93" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94">
@@ -3501,23 +3555,23 @@
       <c r="B94" t="s">
         <v>255</v>
       </c>
-      <c r="C94" t="n">
-        <v>2023.0</v>
+      <c r="C94" t="s">
+        <v>341</v>
       </c>
       <c r="D94" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E94" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F94" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G94" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H94" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95">
@@ -3527,23 +3581,23 @@
       <c r="B95" t="s">
         <v>256</v>
       </c>
-      <c r="C95" t="n">
-        <v>2022.0</v>
+      <c r="C95" t="s">
+        <v>335</v>
       </c>
       <c r="D95" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E95" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F95" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G95" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H95" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96">
@@ -3553,23 +3607,23 @@
       <c r="B96" t="s">
         <v>257</v>
       </c>
-      <c r="C96" t="n">
-        <v>2023.0</v>
+      <c r="C96" t="s">
+        <v>341</v>
       </c>
       <c r="D96" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E96" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F96" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G96" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H96" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97">
@@ -3579,23 +3633,23 @@
       <c r="B97" t="s">
         <v>258</v>
       </c>
-      <c r="C97" t="n">
-        <v>2021.0</v>
+      <c r="C97" t="s">
+        <v>332</v>
       </c>
       <c r="D97" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E97" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F97" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G97" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H97" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98">
@@ -3605,23 +3659,23 @@
       <c r="B98" t="s">
         <v>259</v>
       </c>
-      <c r="C98" t="n">
-        <v>2016.0</v>
+      <c r="C98" t="s">
+        <v>337</v>
       </c>
       <c r="D98" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E98" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F98" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G98" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H98" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99">
@@ -3631,23 +3685,23 @@
       <c r="B99" t="s">
         <v>260</v>
       </c>
-      <c r="C99" t="n">
-        <v>2021.0</v>
+      <c r="C99" t="s">
+        <v>332</v>
       </c>
       <c r="D99" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E99" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F99" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G99" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H99" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100">
@@ -3657,23 +3711,23 @@
       <c r="B100" t="s">
         <v>261</v>
       </c>
-      <c r="C100" t="n">
-        <v>2023.0</v>
+      <c r="C100" t="s">
+        <v>341</v>
       </c>
       <c r="D100" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E100" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F100" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G100" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H100" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101">
@@ -3683,23 +3737,23 @@
       <c r="B101" t="s">
         <v>262</v>
       </c>
-      <c r="C101" t="n">
-        <v>2023.0</v>
+      <c r="C101" t="s">
+        <v>341</v>
       </c>
       <c r="D101" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E101" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F101" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G101" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H101" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102">
@@ -3709,23 +3763,23 @@
       <c r="B102" t="s">
         <v>263</v>
       </c>
-      <c r="C102" t="n">
-        <v>2019.0</v>
+      <c r="C102" t="s">
+        <v>338</v>
       </c>
       <c r="D102" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E102" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F102" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G102" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H102" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103">
@@ -3735,23 +3789,23 @@
       <c r="B103" t="s">
         <v>264</v>
       </c>
-      <c r="C103" t="n">
-        <v>2016.0</v>
+      <c r="C103" t="s">
+        <v>337</v>
       </c>
       <c r="D103" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E103" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F103" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G103" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H103" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104">
@@ -3761,23 +3815,23 @@
       <c r="B104" t="s">
         <v>264</v>
       </c>
-      <c r="C104" t="n">
-        <v>2025.0</v>
+      <c r="C104" t="s">
+        <v>334</v>
       </c>
       <c r="D104" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E104" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F104" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G104" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H104" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105">
@@ -3787,23 +3841,23 @@
       <c r="B105" t="s">
         <v>265</v>
       </c>
-      <c r="C105" t="n">
-        <v>2023.0</v>
+      <c r="C105" t="s">
+        <v>341</v>
       </c>
       <c r="D105" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E105" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F105" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G105" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H105" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106">
@@ -3813,23 +3867,23 @@
       <c r="B106" t="s">
         <v>266</v>
       </c>
-      <c r="C106" t="n">
-        <v>2020.0</v>
+      <c r="C106" t="s">
+        <v>333</v>
       </c>
       <c r="D106" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E106" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F106" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G106" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H106" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107">
@@ -3839,23 +3893,23 @@
       <c r="B107" t="s">
         <v>267</v>
       </c>
-      <c r="C107" t="n">
-        <v>2020.0</v>
+      <c r="C107" t="s">
+        <v>333</v>
       </c>
       <c r="D107" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E107" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F107" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G107" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H107" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108">
@@ -3865,23 +3919,23 @@
       <c r="B108" t="s">
         <v>268</v>
       </c>
-      <c r="C108" t="n">
-        <v>2019.0</v>
+      <c r="C108" t="s">
+        <v>338</v>
       </c>
       <c r="D108" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E108" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F108" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G108" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H108" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109">
@@ -3891,23 +3945,23 @@
       <c r="B109" t="s">
         <v>269</v>
       </c>
-      <c r="C109" t="n">
-        <v>2023.0</v>
+      <c r="C109" t="s">
+        <v>341</v>
       </c>
       <c r="D109" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E109" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F109" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G109" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H109" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110">
@@ -3917,23 +3971,23 @@
       <c r="B110" t="s">
         <v>270</v>
       </c>
-      <c r="C110" t="n">
-        <v>2020.0</v>
+      <c r="C110" t="s">
+        <v>333</v>
       </c>
       <c r="D110" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E110" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F110" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G110" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H110" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111">
@@ -3943,23 +3997,23 @@
       <c r="B111" t="s">
         <v>271</v>
       </c>
-      <c r="C111" t="n">
-        <v>2020.0</v>
+      <c r="C111" t="s">
+        <v>333</v>
       </c>
       <c r="D111" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E111" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F111" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G111" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H111" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112">
@@ -3969,23 +4023,23 @@
       <c r="B112" t="s">
         <v>272</v>
       </c>
-      <c r="C112" t="n">
-        <v>2020.0</v>
+      <c r="C112" t="s">
+        <v>333</v>
       </c>
       <c r="D112" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E112" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F112" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G112" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H112" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113">
@@ -3995,23 +4049,23 @@
       <c r="B113" t="s">
         <v>273</v>
       </c>
-      <c r="C113" t="n">
-        <v>2020.0</v>
+      <c r="C113" t="s">
+        <v>333</v>
       </c>
       <c r="D113" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E113" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F113" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G113" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H113" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114">
@@ -4021,23 +4075,23 @@
       <c r="B114" t="s">
         <v>274</v>
       </c>
-      <c r="C114" t="n">
-        <v>2020.0</v>
+      <c r="C114" t="s">
+        <v>333</v>
       </c>
       <c r="D114" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E114" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F114" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G114" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H114" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="115">
@@ -4047,23 +4101,23 @@
       <c r="B115" t="s">
         <v>275</v>
       </c>
-      <c r="C115" t="n">
-        <v>2020.0</v>
+      <c r="C115" t="s">
+        <v>333</v>
       </c>
       <c r="D115" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E115" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F115" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G115" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H115" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="116">
@@ -4073,23 +4127,23 @@
       <c r="B116" t="s">
         <v>276</v>
       </c>
-      <c r="C116" t="n">
-        <v>2020.0</v>
+      <c r="C116" t="s">
+        <v>333</v>
       </c>
       <c r="D116" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E116" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F116" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G116" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H116" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="117">
@@ -4099,23 +4153,23 @@
       <c r="B117" t="s">
         <v>277</v>
       </c>
-      <c r="C117" t="n">
-        <v>2020.0</v>
+      <c r="C117" t="s">
+        <v>333</v>
       </c>
       <c r="D117" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E117" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F117" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G117" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H117" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118">
@@ -4125,23 +4179,23 @@
       <c r="B118" t="s">
         <v>278</v>
       </c>
-      <c r="C118" t="n">
-        <v>2021.0</v>
+      <c r="C118" t="s">
+        <v>332</v>
       </c>
       <c r="D118" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E118" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F118" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G118" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H118" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119">
@@ -4151,23 +4205,23 @@
       <c r="B119" t="s">
         <v>279</v>
       </c>
-      <c r="C119" t="n">
-        <v>2020.0</v>
+      <c r="C119" t="s">
+        <v>333</v>
       </c>
       <c r="D119" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E119" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F119" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G119" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H119" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120">
@@ -4177,23 +4231,23 @@
       <c r="B120" t="s">
         <v>280</v>
       </c>
-      <c r="C120" t="n">
-        <v>2020.0</v>
+      <c r="C120" t="s">
+        <v>333</v>
       </c>
       <c r="D120" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E120" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F120" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G120" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H120" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121">
@@ -4203,23 +4257,23 @@
       <c r="B121" t="s">
         <v>281</v>
       </c>
-      <c r="C121" t="n">
-        <v>2020.0</v>
+      <c r="C121" t="s">
+        <v>333</v>
       </c>
       <c r="D121" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E121" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F121" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G121" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H121" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122">
@@ -4229,23 +4283,23 @@
       <c r="B122" t="s">
         <v>282</v>
       </c>
-      <c r="C122" t="n">
-        <v>2021.0</v>
+      <c r="C122" t="s">
+        <v>332</v>
       </c>
       <c r="D122" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E122" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F122" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G122" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H122" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123">
@@ -4255,23 +4309,23 @@
       <c r="B123" t="s">
         <v>283</v>
       </c>
-      <c r="C123" t="n">
-        <v>2020.0</v>
+      <c r="C123" t="s">
+        <v>333</v>
       </c>
       <c r="D123" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E123" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F123" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G123" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H123" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124">
@@ -4281,23 +4335,23 @@
       <c r="B124" t="s">
         <v>284</v>
       </c>
-      <c r="C124" t="n">
-        <v>2020.0</v>
+      <c r="C124" t="s">
+        <v>333</v>
       </c>
       <c r="D124" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E124" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F124" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G124" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H124" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125">
@@ -4307,23 +4361,23 @@
       <c r="B125" t="s">
         <v>285</v>
       </c>
-      <c r="C125" t="n">
-        <v>2020.0</v>
+      <c r="C125" t="s">
+        <v>333</v>
       </c>
       <c r="D125" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E125" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F125" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G125" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H125" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126">
@@ -4333,23 +4387,23 @@
       <c r="B126" t="s">
         <v>286</v>
       </c>
-      <c r="C126" t="n">
-        <v>2021.0</v>
+      <c r="C126" t="s">
+        <v>332</v>
       </c>
       <c r="D126" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E126" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F126" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G126" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H126" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127">
@@ -4359,23 +4413,23 @@
       <c r="B127" t="s">
         <v>287</v>
       </c>
-      <c r="C127" t="n">
-        <v>2020.0</v>
+      <c r="C127" t="s">
+        <v>333</v>
       </c>
       <c r="D127" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E127" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F127" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G127" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H127" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="128">
@@ -4385,23 +4439,23 @@
       <c r="B128" t="s">
         <v>288</v>
       </c>
-      <c r="C128" t="n">
-        <v>2023.0</v>
+      <c r="C128" t="s">
+        <v>341</v>
       </c>
       <c r="D128" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E128" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F128" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G128" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H128" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="129">
@@ -4411,23 +4465,23 @@
       <c r="B129" t="s">
         <v>289</v>
       </c>
-      <c r="C129" t="n">
-        <v>2022.0</v>
+      <c r="C129" t="s">
+        <v>335</v>
       </c>
       <c r="D129" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E129" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F129" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G129" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H129" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130">
@@ -4437,23 +4491,23 @@
       <c r="B130" t="s">
         <v>290</v>
       </c>
-      <c r="C130" t="n">
-        <v>2020.0</v>
+      <c r="C130" t="s">
+        <v>333</v>
       </c>
       <c r="D130" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E130" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F130" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G130" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H130" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131">
@@ -4463,23 +4517,23 @@
       <c r="B131" t="s">
         <v>291</v>
       </c>
-      <c r="C131" t="n">
-        <v>2020.0</v>
+      <c r="C131" t="s">
+        <v>333</v>
       </c>
       <c r="D131" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E131" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F131" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G131" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H131" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132">
@@ -4489,23 +4543,23 @@
       <c r="B132" t="s">
         <v>292</v>
       </c>
-      <c r="C132" t="n">
-        <v>2020.0</v>
+      <c r="C132" t="s">
+        <v>333</v>
       </c>
       <c r="D132" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E132" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F132" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G132" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H132" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="133">
@@ -4515,23 +4569,23 @@
       <c r="B133" t="s">
         <v>293</v>
       </c>
-      <c r="C133" t="n">
-        <v>2019.0</v>
+      <c r="C133" t="s">
+        <v>338</v>
       </c>
       <c r="D133" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E133" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F133" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G133" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H133" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="134">
@@ -4541,23 +4595,23 @@
       <c r="B134" t="s">
         <v>294</v>
       </c>
-      <c r="C134" t="n">
-        <v>2021.0</v>
+      <c r="C134" t="s">
+        <v>332</v>
       </c>
       <c r="D134" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E134" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F134" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G134" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H134" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135">
@@ -4567,23 +4621,23 @@
       <c r="B135" t="s">
         <v>295</v>
       </c>
-      <c r="C135" t="n">
-        <v>2021.0</v>
+      <c r="C135" t="s">
+        <v>332</v>
       </c>
       <c r="D135" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E135" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F135" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G135" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H135" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136">
@@ -4593,23 +4647,23 @@
       <c r="B136" t="s">
         <v>296</v>
       </c>
-      <c r="C136" t="n">
-        <v>2020.0</v>
+      <c r="C136" t="s">
+        <v>333</v>
       </c>
       <c r="D136" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E136" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F136" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G136" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H136" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137">
@@ -4619,23 +4673,23 @@
       <c r="B137" t="s">
         <v>297</v>
       </c>
-      <c r="C137" t="n">
-        <v>2020.0</v>
+      <c r="C137" t="s">
+        <v>333</v>
       </c>
       <c r="D137" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E137" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F137" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G137" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H137" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138">
@@ -4645,23 +4699,23 @@
       <c r="B138" t="s">
         <v>298</v>
       </c>
-      <c r="C138" t="n">
-        <v>2020.0</v>
+      <c r="C138" t="s">
+        <v>333</v>
       </c>
       <c r="D138" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E138" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F138" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G138" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H138" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139">
@@ -4671,23 +4725,23 @@
       <c r="B139" t="s">
         <v>299</v>
       </c>
-      <c r="C139" t="n">
-        <v>2020.0</v>
+      <c r="C139" t="s">
+        <v>333</v>
       </c>
       <c r="D139" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E139" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F139" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G139" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H139" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140">
@@ -4697,23 +4751,23 @@
       <c r="B140" t="s">
         <v>300</v>
       </c>
-      <c r="C140" t="n">
-        <v>2020.0</v>
+      <c r="C140" t="s">
+        <v>333</v>
       </c>
       <c r="D140" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E140" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F140" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G140" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H140" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="141">
@@ -4723,23 +4777,23 @@
       <c r="B141" t="s">
         <v>301</v>
       </c>
-      <c r="C141" t="n">
-        <v>2021.0</v>
+      <c r="C141" t="s">
+        <v>332</v>
       </c>
       <c r="D141" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E141" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F141" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G141" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H141" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="142">
@@ -4749,23 +4803,23 @@
       <c r="B142" t="s">
         <v>302</v>
       </c>
-      <c r="C142" t="n">
-        <v>2016.0</v>
+      <c r="C142" t="s">
+        <v>337</v>
       </c>
       <c r="D142" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E142" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F142" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G142" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H142" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143">
@@ -4775,23 +4829,23 @@
       <c r="B143" t="s">
         <v>302</v>
       </c>
-      <c r="C143" t="n">
-        <v>2021.0</v>
+      <c r="C143" t="s">
+        <v>332</v>
       </c>
       <c r="D143" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E143" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F143" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G143" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H143" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="144">
@@ -4801,23 +4855,23 @@
       <c r="B144" t="s">
         <v>303</v>
       </c>
-      <c r="C144" t="n">
-        <v>2022.0</v>
+      <c r="C144" t="s">
+        <v>335</v>
       </c>
       <c r="D144" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E144" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F144" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G144" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H144" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="145">
@@ -4827,23 +4881,23 @@
       <c r="B145" t="s">
         <v>304</v>
       </c>
-      <c r="C145" t="n">
-        <v>2020.0</v>
+      <c r="C145" t="s">
+        <v>333</v>
       </c>
       <c r="D145" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E145" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F145" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G145" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H145" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="146">
@@ -4853,23 +4907,23 @@
       <c r="B146" t="s">
         <v>305</v>
       </c>
-      <c r="C146" t="n">
-        <v>2018.0</v>
+      <c r="C146" t="s">
+        <v>342</v>
       </c>
       <c r="D146" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E146" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F146" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G146" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H146" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147">
@@ -4879,23 +4933,23 @@
       <c r="B147" t="s">
         <v>305</v>
       </c>
-      <c r="C147" t="n">
-        <v>2022.0</v>
+      <c r="C147" t="s">
+        <v>335</v>
       </c>
       <c r="D147" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E147" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F147" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G147" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H147" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="148">
@@ -4905,23 +4959,23 @@
       <c r="B148" t="s">
         <v>306</v>
       </c>
-      <c r="C148" t="n">
-        <v>2020.0</v>
+      <c r="C148" t="s">
+        <v>333</v>
       </c>
       <c r="D148" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E148" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F148" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G148" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H148" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="149">
@@ -4931,23 +4985,23 @@
       <c r="B149" t="s">
         <v>307</v>
       </c>
-      <c r="C149" t="n">
-        <v>2021.0</v>
+      <c r="C149" t="s">
+        <v>332</v>
       </c>
       <c r="D149" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E149" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F149" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G149" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H149" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="150">
@@ -4957,23 +5011,23 @@
       <c r="B150" t="s">
         <v>308</v>
       </c>
-      <c r="C150" t="n">
-        <v>2017.0</v>
+      <c r="C150" t="s">
+        <v>340</v>
       </c>
       <c r="D150" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E150" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F150" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G150" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H150" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="151">
@@ -4983,23 +5037,23 @@
       <c r="B151" t="s">
         <v>309</v>
       </c>
-      <c r="C151" t="n">
-        <v>2021.0</v>
+      <c r="C151" t="s">
+        <v>332</v>
       </c>
       <c r="D151" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E151" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F151" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G151" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H151" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152">
@@ -5009,23 +5063,23 @@
       <c r="B152" t="s">
         <v>310</v>
       </c>
-      <c r="C152" t="n">
-        <v>2017.0</v>
+      <c r="C152" t="s">
+        <v>340</v>
       </c>
       <c r="D152" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E152" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F152" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G152" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H152" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153">
@@ -5035,23 +5089,23 @@
       <c r="B153" t="s">
         <v>310</v>
       </c>
-      <c r="C153" t="n">
-        <v>2022.0</v>
+      <c r="C153" t="s">
+        <v>335</v>
       </c>
       <c r="D153" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E153" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F153" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G153" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H153" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154">
@@ -5061,23 +5115,23 @@
       <c r="B154" t="s">
         <v>311</v>
       </c>
-      <c r="C154" t="n">
-        <v>2021.0</v>
+      <c r="C154" t="s">
+        <v>332</v>
       </c>
       <c r="D154" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E154" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F154" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G154" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H154" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="155">
@@ -5087,23 +5141,23 @@
       <c r="B155" t="s">
         <v>312</v>
       </c>
-      <c r="C155" t="n">
-        <v>2018.0</v>
+      <c r="C155" t="s">
+        <v>342</v>
       </c>
       <c r="D155" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E155" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F155" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G155" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H155" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156">
@@ -5113,23 +5167,23 @@
       <c r="B156" t="s">
         <v>312</v>
       </c>
-      <c r="C156" t="n">
-        <v>2022.0</v>
+      <c r="C156" t="s">
+        <v>335</v>
       </c>
       <c r="D156" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E156" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F156" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G156" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H156" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="157">
@@ -5139,23 +5193,23 @@
       <c r="B157" t="s">
         <v>313</v>
       </c>
-      <c r="C157" t="n">
-        <v>2020.0</v>
+      <c r="C157" t="s">
+        <v>333</v>
       </c>
       <c r="D157" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E157" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F157" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G157" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H157" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="158">
@@ -5165,23 +5219,23 @@
       <c r="B158" t="s">
         <v>314</v>
       </c>
-      <c r="C158" t="n">
-        <v>2020.0</v>
+      <c r="C158" t="s">
+        <v>333</v>
       </c>
       <c r="D158" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E158" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F158" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G158" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H158" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="159">
@@ -5191,23 +5245,23 @@
       <c r="B159" t="s">
         <v>315</v>
       </c>
-      <c r="C159" t="n">
-        <v>2022.0</v>
+      <c r="C159" t="s">
+        <v>335</v>
       </c>
       <c r="D159" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E159" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F159" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G159" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H159" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160">
@@ -5217,23 +5271,23 @@
       <c r="B160" t="s">
         <v>316</v>
       </c>
-      <c r="C160" t="n">
-        <v>2022.0</v>
+      <c r="C160" t="s">
+        <v>335</v>
       </c>
       <c r="D160" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E160" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F160" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G160" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H160" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161">
@@ -5243,23 +5297,23 @@
       <c r="B161" t="s">
         <v>317</v>
       </c>
-      <c r="C161" t="n">
-        <v>2017.0</v>
+      <c r="C161" t="s">
+        <v>340</v>
       </c>
       <c r="D161" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E161" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F161" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G161" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H161" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="162">
@@ -5269,23 +5323,23 @@
       <c r="B162" t="s">
         <v>318</v>
       </c>
-      <c r="C162" t="n">
-        <v>2022.0</v>
+      <c r="C162" t="s">
+        <v>335</v>
       </c>
       <c r="D162" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E162" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F162" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G162" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H162" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="163">
@@ -5295,23 +5349,23 @@
       <c r="B163" t="s">
         <v>173</v>
       </c>
-      <c r="C163" t="n">
-        <v>2015.0</v>
+      <c r="C163" t="s">
+        <v>336</v>
       </c>
       <c r="D163" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E163" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F163" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G163" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H163" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="164">
@@ -5321,23 +5375,23 @@
       <c r="B164" t="s">
         <v>174</v>
       </c>
-      <c r="C164" t="n">
-        <v>2010.0</v>
+      <c r="C164" t="s">
+        <v>343</v>
       </c>
       <c r="D164" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E164" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F164" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G164" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H164" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165">
@@ -5347,23 +5401,23 @@
       <c r="B165" t="s">
         <v>176</v>
       </c>
-      <c r="C165" t="n">
-        <v>2015.0</v>
+      <c r="C165" t="s">
+        <v>336</v>
       </c>
       <c r="D165" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E165" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F165" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G165" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H165" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166">
@@ -5373,23 +5427,23 @@
       <c r="B166" t="s">
         <v>179</v>
       </c>
-      <c r="C166" t="n">
-        <v>2015.0</v>
+      <c r="C166" t="s">
+        <v>336</v>
       </c>
       <c r="D166" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E166" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F166" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G166" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H166" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="167">
@@ -5399,23 +5453,23 @@
       <c r="B167" t="s">
         <v>180</v>
       </c>
-      <c r="C167" t="n">
-        <v>2016.0</v>
+      <c r="C167" t="s">
+        <v>337</v>
       </c>
       <c r="D167" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G167" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H167" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168">
@@ -5425,23 +5479,23 @@
       <c r="B168" t="s">
         <v>182</v>
       </c>
-      <c r="C168" t="n">
-        <v>2010.0</v>
+      <c r="C168" t="s">
+        <v>343</v>
       </c>
       <c r="D168" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G168" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H168" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169">
@@ -5451,23 +5505,23 @@
       <c r="B169" t="s">
         <v>183</v>
       </c>
-      <c r="C169" t="n">
-        <v>2015.0</v>
+      <c r="C169" t="s">
+        <v>336</v>
       </c>
       <c r="D169" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G169" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H169" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170">
@@ -5477,23 +5531,23 @@
       <c r="B170" t="s">
         <v>201</v>
       </c>
-      <c r="C170" t="n">
-        <v>2012.0</v>
+      <c r="C170" t="s">
+        <v>344</v>
       </c>
       <c r="D170" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G170" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H170" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="171">
@@ -5503,23 +5557,23 @@
       <c r="B171" t="s">
         <v>189</v>
       </c>
-      <c r="C171" t="n">
-        <v>2010.0</v>
+      <c r="C171" t="s">
+        <v>343</v>
       </c>
       <c r="D171" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G171" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H171" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172">
@@ -5529,23 +5583,23 @@
       <c r="B172" t="s">
         <v>191</v>
       </c>
-      <c r="C172" t="n">
-        <v>2007.0</v>
+      <c r="C172" t="s">
+        <v>345</v>
       </c>
       <c r="D172" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G172" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H172" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173">
@@ -5555,23 +5609,23 @@
       <c r="B173" t="s">
         <v>319</v>
       </c>
-      <c r="C173" t="n">
-        <v>2014.0</v>
+      <c r="C173" t="s">
+        <v>346</v>
       </c>
       <c r="D173" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G173" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H173" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174">
@@ -5581,23 +5635,23 @@
       <c r="B174" t="s">
         <v>320</v>
       </c>
-      <c r="C174" t="n">
-        <v>2010.0</v>
+      <c r="C174" t="s">
+        <v>343</v>
       </c>
       <c r="D174" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G174" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H174" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175">
@@ -5607,23 +5661,23 @@
       <c r="B175" t="s">
         <v>194</v>
       </c>
-      <c r="C175" t="n">
-        <v>2014.0</v>
+      <c r="C175" t="s">
+        <v>346</v>
       </c>
       <c r="D175" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G175" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H175" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="176">
@@ -5633,23 +5687,23 @@
       <c r="B176" t="s">
         <v>195</v>
       </c>
-      <c r="C176" t="n">
-        <v>2008.0</v>
+      <c r="C176" t="s">
+        <v>347</v>
       </c>
       <c r="D176" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G176" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H176" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="177">
@@ -5659,23 +5713,23 @@
       <c r="B177" t="s">
         <v>196</v>
       </c>
-      <c r="C177" t="n">
-        <v>2010.0</v>
+      <c r="C177" t="s">
+        <v>343</v>
       </c>
       <c r="D177" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G177" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H177" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="178">
@@ -5685,23 +5739,23 @@
       <c r="B178" t="s">
         <v>321</v>
       </c>
-      <c r="C178" t="n">
-        <v>2013.0</v>
+      <c r="C178" t="s">
+        <v>348</v>
       </c>
       <c r="D178" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F178" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G178" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H178" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179">
@@ -5711,23 +5765,23 @@
       <c r="B179" t="s">
         <v>197</v>
       </c>
-      <c r="C179" t="n">
-        <v>2011.0</v>
+      <c r="C179" t="s">
+        <v>349</v>
       </c>
       <c r="D179" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E179" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G179" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H179" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180">
@@ -5737,23 +5791,23 @@
       <c r="B180" t="s">
         <v>198</v>
       </c>
-      <c r="C180" t="n">
-        <v>2007.0</v>
+      <c r="C180" t="s">
+        <v>345</v>
       </c>
       <c r="D180" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E180" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G180" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H180" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="181">
@@ -5763,23 +5817,23 @@
       <c r="B181" t="s">
         <v>322</v>
       </c>
-      <c r="C181" t="n">
-        <v>2013.0</v>
+      <c r="C181" t="s">
+        <v>348</v>
       </c>
       <c r="D181" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E181" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G181" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H181" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="182">
@@ -5789,23 +5843,23 @@
       <c r="B182" t="s">
         <v>200</v>
       </c>
-      <c r="C182" t="n">
-        <v>2008.0</v>
+      <c r="C182" t="s">
+        <v>347</v>
       </c>
       <c r="D182" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E182" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G182" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H182" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183">
@@ -5815,23 +5869,23 @@
       <c r="B183" t="s">
         <v>202</v>
       </c>
-      <c r="C183" t="n">
-        <v>2012.0</v>
+      <c r="C183" t="s">
+        <v>344</v>
       </c>
       <c r="D183" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E183" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G183" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H183" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="184">
@@ -5841,23 +5895,23 @@
       <c r="B184" t="s">
         <v>204</v>
       </c>
-      <c r="C184" t="n">
-        <v>2009.0</v>
+      <c r="C184" t="s">
+        <v>350</v>
       </c>
       <c r="D184" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E184" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G184" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H184" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="185">
@@ -5867,23 +5921,23 @@
       <c r="B185" t="s">
         <v>205</v>
       </c>
-      <c r="C185" t="n">
-        <v>2007.0</v>
+      <c r="C185" t="s">
+        <v>345</v>
       </c>
       <c r="D185" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E185" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G185" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H185" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="186">
@@ -5893,23 +5947,23 @@
       <c r="B186" t="s">
         <v>206</v>
       </c>
-      <c r="C186" t="n">
-        <v>2011.0</v>
+      <c r="C186" t="s">
+        <v>349</v>
       </c>
       <c r="D186" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E186" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G186" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H186" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="187">
@@ -5919,23 +5973,23 @@
       <c r="B187" t="s">
         <v>207</v>
       </c>
-      <c r="C187" t="n">
-        <v>2011.0</v>
+      <c r="C187" t="s">
+        <v>349</v>
       </c>
       <c r="D187" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E187" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G187" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H187" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="188">
@@ -5945,23 +5999,23 @@
       <c r="B188" t="s">
         <v>208</v>
       </c>
-      <c r="C188" t="n">
-        <v>2014.0</v>
+      <c r="C188" t="s">
+        <v>346</v>
       </c>
       <c r="D188" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E188" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G188" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H188" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="189">
@@ -5971,23 +6025,23 @@
       <c r="B189" t="s">
         <v>323</v>
       </c>
-      <c r="C189" t="n">
-        <v>2008.0</v>
+      <c r="C189" t="s">
+        <v>347</v>
       </c>
       <c r="D189" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E189" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F189" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G189" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H189" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190">
@@ -5997,23 +6051,23 @@
       <c r="B190" t="s">
         <v>211</v>
       </c>
-      <c r="C190" t="n">
-        <v>2012.0</v>
+      <c r="C190" t="s">
+        <v>344</v>
       </c>
       <c r="D190" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E190" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F190" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G190" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H190" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191">
@@ -6023,23 +6077,23 @@
       <c r="B191" t="s">
         <v>212</v>
       </c>
-      <c r="C191" t="n">
-        <v>2010.0</v>
+      <c r="C191" t="s">
+        <v>343</v>
       </c>
       <c r="D191" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E191" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F191" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G191" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H191" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="192">
@@ -6049,23 +6103,23 @@
       <c r="B192" t="s">
         <v>213</v>
       </c>
-      <c r="C192" t="n">
-        <v>2009.0</v>
+      <c r="C192" t="s">
+        <v>350</v>
       </c>
       <c r="D192" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E192" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F192" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G192" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H192" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="193">
@@ -6075,23 +6129,23 @@
       <c r="B193" t="s">
         <v>324</v>
       </c>
-      <c r="C193" t="n">
-        <v>2007.0</v>
+      <c r="C193" t="s">
+        <v>345</v>
       </c>
       <c r="D193" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E193" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F193" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G193" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H193" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="194">
@@ -6101,23 +6155,23 @@
       <c r="B194" t="s">
         <v>215</v>
       </c>
-      <c r="C194" t="n">
-        <v>2010.0</v>
+      <c r="C194" t="s">
+        <v>343</v>
       </c>
       <c r="D194" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E194" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F194" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G194" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H194" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="195">
@@ -6127,23 +6181,23 @@
       <c r="B195" t="s">
         <v>325</v>
       </c>
-      <c r="C195" t="n">
-        <v>2007.0</v>
+      <c r="C195" t="s">
+        <v>345</v>
       </c>
       <c r="D195" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E195" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F195" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G195" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H195" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="196">
@@ -6153,23 +6207,23 @@
       <c r="B196" t="s">
         <v>326</v>
       </c>
-      <c r="C196" t="n">
-        <v>2011.0</v>
+      <c r="C196" t="s">
+        <v>349</v>
       </c>
       <c r="D196" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E196" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F196" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G196" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H196" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="197">
@@ -6179,23 +6233,23 @@
       <c r="B197" t="s">
         <v>216</v>
       </c>
-      <c r="C197" t="n">
-        <v>2011.0</v>
+      <c r="C197" t="s">
+        <v>349</v>
       </c>
       <c r="D197" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E197" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F197" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G197" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H197" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="198">
@@ -6205,23 +6259,23 @@
       <c r="B198" t="s">
         <v>219</v>
       </c>
-      <c r="C198" t="n">
-        <v>2007.0</v>
+      <c r="C198" t="s">
+        <v>345</v>
       </c>
       <c r="D198" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E198" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F198" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G198" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H198" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="199">
@@ -6231,23 +6285,23 @@
       <c r="B199" t="s">
         <v>221</v>
       </c>
-      <c r="C199" t="n">
-        <v>2007.0</v>
+      <c r="C199" t="s">
+        <v>345</v>
       </c>
       <c r="D199" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E199" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F199" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G199" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H199" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="200">
@@ -6257,23 +6311,23 @@
       <c r="B200" t="s">
         <v>221</v>
       </c>
-      <c r="C200" t="n">
-        <v>2012.0</v>
+      <c r="C200" t="s">
+        <v>344</v>
       </c>
       <c r="D200" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E200" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F200" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G200" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H200" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="201">
@@ -6283,23 +6337,23 @@
       <c r="B201" t="s">
         <v>223</v>
       </c>
-      <c r="C201" t="n">
-        <v>2008.0</v>
+      <c r="C201" t="s">
+        <v>347</v>
       </c>
       <c r="D201" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E201" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F201" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G201" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H201" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="202">
@@ -6309,23 +6363,23 @@
       <c r="B202" t="s">
         <v>224</v>
       </c>
-      <c r="C202" t="n">
-        <v>2013.0</v>
+      <c r="C202" t="s">
+        <v>348</v>
       </c>
       <c r="D202" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E202" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F202" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G202" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H202" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="203">
@@ -6335,23 +6389,23 @@
       <c r="B203" t="s">
         <v>225</v>
       </c>
-      <c r="C203" t="n">
-        <v>2006.0</v>
+      <c r="C203" t="s">
+        <v>351</v>
       </c>
       <c r="D203" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E203" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F203" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G203" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H203" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="204">
@@ -6361,23 +6415,23 @@
       <c r="B204" t="s">
         <v>226</v>
       </c>
-      <c r="C204" t="n">
-        <v>2007.0</v>
+      <c r="C204" t="s">
+        <v>345</v>
       </c>
       <c r="D204" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E204" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F204" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G204" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H204" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="205">
@@ -6387,23 +6441,23 @@
       <c r="B205" t="s">
         <v>227</v>
       </c>
-      <c r="C205" t="n">
-        <v>2014.0</v>
+      <c r="C205" t="s">
+        <v>346</v>
       </c>
       <c r="D205" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E205" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F205" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G205" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H205" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="206">
@@ -6413,23 +6467,23 @@
       <c r="B206" t="s">
         <v>228</v>
       </c>
-      <c r="C206" t="n">
-        <v>2010.0</v>
+      <c r="C206" t="s">
+        <v>343</v>
       </c>
       <c r="D206" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E206" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F206" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G206" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H206" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="207">
@@ -6439,23 +6493,23 @@
       <c r="B207" t="s">
         <v>230</v>
       </c>
-      <c r="C207" t="n">
-        <v>2008.0</v>
+      <c r="C207" t="s">
+        <v>347</v>
       </c>
       <c r="D207" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E207" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F207" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G207" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H207" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="208">
@@ -6465,23 +6519,23 @@
       <c r="B208" t="s">
         <v>231</v>
       </c>
-      <c r="C208" t="n">
-        <v>2012.0</v>
+      <c r="C208" t="s">
+        <v>344</v>
       </c>
       <c r="D208" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E208" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F208" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G208" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H208" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="209">
@@ -6491,23 +6545,23 @@
       <c r="B209" t="s">
         <v>232</v>
       </c>
-      <c r="C209" t="n">
-        <v>2008.0</v>
+      <c r="C209" t="s">
+        <v>347</v>
       </c>
       <c r="D209" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E209" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F209" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G209" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H209" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="210">
@@ -6517,23 +6571,23 @@
       <c r="B210" t="s">
         <v>233</v>
       </c>
-      <c r="C210" t="n">
-        <v>2011.0</v>
+      <c r="C210" t="s">
+        <v>349</v>
       </c>
       <c r="D210" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E210" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F210" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G210" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H210" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="211">
@@ -6543,23 +6597,23 @@
       <c r="B211" t="s">
         <v>327</v>
       </c>
-      <c r="C211" t="n">
-        <v>2008.0</v>
+      <c r="C211" t="s">
+        <v>347</v>
       </c>
       <c r="D211" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E211" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F211" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G211" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H211" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="212">
@@ -6569,23 +6623,23 @@
       <c r="B212" t="s">
         <v>234</v>
       </c>
-      <c r="C212" t="n">
-        <v>2014.0</v>
+      <c r="C212" t="s">
+        <v>346</v>
       </c>
       <c r="D212" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E212" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F212" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G212" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H212" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="213">
@@ -6595,23 +6649,23 @@
       <c r="B213" t="s">
         <v>235</v>
       </c>
-      <c r="C213" t="n">
-        <v>2015.0</v>
+      <c r="C213" t="s">
+        <v>336</v>
       </c>
       <c r="D213" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E213" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F213" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G213" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H213" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="214">
@@ -6621,23 +6675,23 @@
       <c r="B214" t="s">
         <v>236</v>
       </c>
-      <c r="C214" t="n">
-        <v>2008.0</v>
+      <c r="C214" t="s">
+        <v>347</v>
       </c>
       <c r="D214" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E214" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F214" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G214" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H214" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="215">
@@ -6647,23 +6701,23 @@
       <c r="B215" t="s">
         <v>237</v>
       </c>
-      <c r="C215" t="n">
-        <v>2009.0</v>
+      <c r="C215" t="s">
+        <v>350</v>
       </c>
       <c r="D215" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E215" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F215" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G215" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H215" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="216">
@@ -6673,23 +6727,23 @@
       <c r="B216" t="s">
         <v>238</v>
       </c>
-      <c r="C216" t="n">
-        <v>2013.0</v>
+      <c r="C216" t="s">
+        <v>348</v>
       </c>
       <c r="D216" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E216" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F216" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G216" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H216" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="217">
@@ -6699,23 +6753,23 @@
       <c r="B217" t="s">
         <v>239</v>
       </c>
-      <c r="C217" t="n">
-        <v>2006.0</v>
+      <c r="C217" t="s">
+        <v>351</v>
       </c>
       <c r="D217" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E217" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F217" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G217" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H217" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="218">
@@ -6725,23 +6779,23 @@
       <c r="B218" t="s">
         <v>240</v>
       </c>
-      <c r="C218" t="n">
-        <v>2010.0</v>
+      <c r="C218" t="s">
+        <v>343</v>
       </c>
       <c r="D218" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E218" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F218" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G218" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H218" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="219">
@@ -6751,23 +6805,23 @@
       <c r="B219" t="s">
         <v>241</v>
       </c>
-      <c r="C219" t="n">
-        <v>2014.0</v>
+      <c r="C219" t="s">
+        <v>346</v>
       </c>
       <c r="D219" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E219" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F219" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G219" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H219" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="220">
@@ -6777,23 +6831,23 @@
       <c r="B220" t="s">
         <v>242</v>
       </c>
-      <c r="C220" t="n">
-        <v>2011.0</v>
+      <c r="C220" t="s">
+        <v>349</v>
       </c>
       <c r="D220" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E220" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F220" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G220" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H220" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="221">
@@ -6803,23 +6857,23 @@
       <c r="B221" t="s">
         <v>328</v>
       </c>
-      <c r="C221" t="n">
-        <v>2015.0</v>
+      <c r="C221" t="s">
+        <v>336</v>
       </c>
       <c r="D221" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E221" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F221" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G221" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H221" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="222">
@@ -6829,23 +6883,23 @@
       <c r="B222" t="s">
         <v>243</v>
       </c>
-      <c r="C222" t="n">
-        <v>2013.0</v>
+      <c r="C222" t="s">
+        <v>348</v>
       </c>
       <c r="D222" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E222" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F222" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G222" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H222" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="223">
@@ -6855,23 +6909,23 @@
       <c r="B223" t="s">
         <v>245</v>
       </c>
-      <c r="C223" t="n">
-        <v>2015.0</v>
+      <c r="C223" t="s">
+        <v>336</v>
       </c>
       <c r="D223" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E223" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F223" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G223" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H223" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="224">
@@ -6881,23 +6935,23 @@
       <c r="B224" t="s">
         <v>246</v>
       </c>
-      <c r="C224" t="n">
-        <v>2007.0</v>
+      <c r="C224" t="s">
+        <v>345</v>
       </c>
       <c r="D224" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E224" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F224" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G224" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H224" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="225">
@@ -6907,23 +6961,23 @@
       <c r="B225" t="s">
         <v>329</v>
       </c>
-      <c r="C225" t="n">
-        <v>2007.0</v>
+      <c r="C225" t="s">
+        <v>345</v>
       </c>
       <c r="D225" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E225" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F225" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G225" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H225" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="226">
@@ -6933,23 +6987,23 @@
       <c r="B226" t="s">
         <v>249</v>
       </c>
-      <c r="C226" t="n">
-        <v>2011.0</v>
+      <c r="C226" t="s">
+        <v>349</v>
       </c>
       <c r="D226" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E226" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F226" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G226" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H226" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="227">
@@ -6959,23 +7013,23 @@
       <c r="B227" t="s">
         <v>330</v>
       </c>
-      <c r="C227" t="n">
-        <v>2010.0</v>
+      <c r="C227" t="s">
+        <v>343</v>
       </c>
       <c r="D227" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E227" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F227" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G227" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H227" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="228">
@@ -6985,23 +7039,23 @@
       <c r="B228" t="s">
         <v>251</v>
       </c>
-      <c r="C228" t="n">
-        <v>2011.0</v>
+      <c r="C228" t="s">
+        <v>349</v>
       </c>
       <c r="D228" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E228" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F228" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G228" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H228" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="229">
@@ -7011,23 +7065,23 @@
       <c r="B229" t="s">
         <v>252</v>
       </c>
-      <c r="C229" t="n">
-        <v>2010.0</v>
+      <c r="C229" t="s">
+        <v>343</v>
       </c>
       <c r="D229" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E229" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F229" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G229" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H229" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="230">
@@ -7037,23 +7091,23 @@
       <c r="B230" t="s">
         <v>253</v>
       </c>
-      <c r="C230" t="n">
-        <v>2012.0</v>
+      <c r="C230" t="s">
+        <v>344</v>
       </c>
       <c r="D230" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E230" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F230" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G230" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H230" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="231">
@@ -7063,23 +7117,23 @@
       <c r="B231" t="s">
         <v>254</v>
       </c>
-      <c r="C231" t="n">
-        <v>2010.0</v>
+      <c r="C231" t="s">
+        <v>343</v>
       </c>
       <c r="D231" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E231" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F231" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G231" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H231" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="232">
@@ -7089,23 +7143,23 @@
       <c r="B232" t="s">
         <v>255</v>
       </c>
-      <c r="C232" t="n">
-        <v>2013.0</v>
+      <c r="C232" t="s">
+        <v>348</v>
       </c>
       <c r="D232" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E232" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F232" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G232" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H232" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="233">
@@ -7115,23 +7169,23 @@
       <c r="B233" t="s">
         <v>256</v>
       </c>
-      <c r="C233" t="n">
-        <v>2010.0</v>
+      <c r="C233" t="s">
+        <v>343</v>
       </c>
       <c r="D233" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E233" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F233" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G233" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H233" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="234">
@@ -7141,23 +7195,23 @@
       <c r="B234" t="s">
         <v>257</v>
       </c>
-      <c r="C234" t="n">
-        <v>2012.0</v>
+      <c r="C234" t="s">
+        <v>344</v>
       </c>
       <c r="D234" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E234" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F234" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G234" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H234" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="235">
@@ -7167,23 +7221,23 @@
       <c r="B235" t="s">
         <v>259</v>
       </c>
-      <c r="C235" t="n">
-        <v>2006.0</v>
+      <c r="C235" t="s">
+        <v>351</v>
       </c>
       <c r="D235" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E235" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F235" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G235" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H235" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="236">
@@ -7193,23 +7247,23 @@
       <c r="B236" t="s">
         <v>260</v>
       </c>
-      <c r="C236" t="n">
-        <v>2015.0</v>
+      <c r="C236" t="s">
+        <v>336</v>
       </c>
       <c r="D236" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E236" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F236" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G236" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H236" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="237">
@@ -7219,23 +7273,23 @@
       <c r="B237" t="s">
         <v>261</v>
       </c>
-      <c r="C237" t="n">
-        <v>2014.0</v>
+      <c r="C237" t="s">
+        <v>346</v>
       </c>
       <c r="D237" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E237" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F237" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G237" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H237" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="238">
@@ -7245,23 +7299,23 @@
       <c r="B238" t="s">
         <v>331</v>
       </c>
-      <c r="C238" t="n">
-        <v>2013.0</v>
+      <c r="C238" t="s">
+        <v>348</v>
       </c>
       <c r="D238" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E238" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F238" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G238" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H238" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="239">
@@ -7271,23 +7325,23 @@
       <c r="B239" t="s">
         <v>262</v>
       </c>
-      <c r="C239" t="n">
-        <v>2013.0</v>
+      <c r="C239" t="s">
+        <v>348</v>
       </c>
       <c r="D239" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E239" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F239" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G239" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H239" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="240">
@@ -7297,23 +7351,23 @@
       <c r="B240" t="s">
         <v>264</v>
       </c>
-      <c r="C240" t="n">
-        <v>2011.0</v>
+      <c r="C240" t="s">
+        <v>349</v>
       </c>
       <c r="D240" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E240" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F240" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G240" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H240" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="241">
@@ -7323,23 +7377,23 @@
       <c r="B241" t="s">
         <v>265</v>
       </c>
-      <c r="C241" t="n">
-        <v>2012.0</v>
+      <c r="C241" t="s">
+        <v>344</v>
       </c>
       <c r="D241" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E241" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F241" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G241" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H241" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="242">
@@ -7349,23 +7403,23 @@
       <c r="B242" t="s">
         <v>266</v>
       </c>
-      <c r="C242" t="n">
-        <v>2010.0</v>
+      <c r="C242" t="s">
+        <v>343</v>
       </c>
       <c r="D242" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E242" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F242" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G242" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H242" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="243">
@@ -7375,23 +7429,23 @@
       <c r="B243" t="s">
         <v>267</v>
       </c>
-      <c r="C243" t="n">
-        <v>2010.0</v>
+      <c r="C243" t="s">
+        <v>343</v>
       </c>
       <c r="D243" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E243" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F243" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G243" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H243" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="244">
@@ -7401,23 +7455,23 @@
       <c r="B244" t="s">
         <v>270</v>
       </c>
-      <c r="C244" t="n">
-        <v>2010.0</v>
+      <c r="C244" t="s">
+        <v>343</v>
       </c>
       <c r="D244" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E244" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F244" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G244" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H244" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="245">
@@ -7427,23 +7481,23 @@
       <c r="B245" t="s">
         <v>271</v>
       </c>
-      <c r="C245" t="n">
-        <v>2010.0</v>
+      <c r="C245" t="s">
+        <v>343</v>
       </c>
       <c r="D245" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E245" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F245" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G245" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H245" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="246">
@@ -7453,23 +7507,23 @@
       <c r="B246" t="s">
         <v>272</v>
       </c>
-      <c r="C246" t="n">
-        <v>2010.0</v>
+      <c r="C246" t="s">
+        <v>343</v>
       </c>
       <c r="D246" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E246" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F246" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G246" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H246" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="247">
@@ -7479,23 +7533,23 @@
       <c r="B247" t="s">
         <v>273</v>
       </c>
-      <c r="C247" t="n">
-        <v>2010.0</v>
+      <c r="C247" t="s">
+        <v>343</v>
       </c>
       <c r="D247" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E247" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F247" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G247" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H247" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="248">
@@ -7505,23 +7559,23 @@
       <c r="B248" t="s">
         <v>274</v>
       </c>
-      <c r="C248" t="n">
-        <v>2010.0</v>
+      <c r="C248" t="s">
+        <v>343</v>
       </c>
       <c r="D248" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E248" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F248" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G248" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H248" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="249">
@@ -7531,23 +7585,23 @@
       <c r="B249" t="s">
         <v>275</v>
       </c>
-      <c r="C249" t="n">
-        <v>2010.0</v>
+      <c r="C249" t="s">
+        <v>343</v>
       </c>
       <c r="D249" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E249" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F249" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G249" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H249" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="250">
@@ -7557,23 +7611,23 @@
       <c r="B250" t="s">
         <v>276</v>
       </c>
-      <c r="C250" t="n">
-        <v>2010.0</v>
+      <c r="C250" t="s">
+        <v>343</v>
       </c>
       <c r="D250" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E250" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F250" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G250" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H250" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="251">
@@ -7583,23 +7637,23 @@
       <c r="B251" t="s">
         <v>277</v>
       </c>
-      <c r="C251" t="n">
-        <v>2010.0</v>
+      <c r="C251" t="s">
+        <v>343</v>
       </c>
       <c r="D251" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E251" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F251" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G251" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H251" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="252">
@@ -7609,23 +7663,23 @@
       <c r="B252" t="s">
         <v>278</v>
       </c>
-      <c r="C252" t="n">
-        <v>2010.0</v>
+      <c r="C252" t="s">
+        <v>343</v>
       </c>
       <c r="D252" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E252" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F252" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G252" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H252" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="253">
@@ -7635,23 +7689,23 @@
       <c r="B253" t="s">
         <v>279</v>
       </c>
-      <c r="C253" t="n">
-        <v>2010.0</v>
+      <c r="C253" t="s">
+        <v>343</v>
       </c>
       <c r="D253" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E253" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F253" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G253" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H253" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="254">
@@ -7661,23 +7715,23 @@
       <c r="B254" t="s">
         <v>280</v>
       </c>
-      <c r="C254" t="n">
-        <v>2010.0</v>
+      <c r="C254" t="s">
+        <v>343</v>
       </c>
       <c r="D254" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E254" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F254" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G254" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H254" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="255">
@@ -7687,23 +7741,23 @@
       <c r="B255" t="s">
         <v>281</v>
       </c>
-      <c r="C255" t="n">
-        <v>2010.0</v>
+      <c r="C255" t="s">
+        <v>343</v>
       </c>
       <c r="D255" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E255" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F255" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G255" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H255" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="256">
@@ -7713,23 +7767,23 @@
       <c r="B256" t="s">
         <v>282</v>
       </c>
-      <c r="C256" t="n">
-        <v>2010.0</v>
+      <c r="C256" t="s">
+        <v>343</v>
       </c>
       <c r="D256" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E256" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F256" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G256" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H256" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="257">
@@ -7739,23 +7793,23 @@
       <c r="B257" t="s">
         <v>283</v>
       </c>
-      <c r="C257" t="n">
-        <v>2010.0</v>
+      <c r="C257" t="s">
+        <v>343</v>
       </c>
       <c r="D257" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E257" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F257" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G257" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H257" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="258">
@@ -7765,23 +7819,23 @@
       <c r="B258" t="s">
         <v>284</v>
       </c>
-      <c r="C258" t="n">
-        <v>2010.0</v>
+      <c r="C258" t="s">
+        <v>343</v>
       </c>
       <c r="D258" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E258" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F258" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G258" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H258" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="259">
@@ -7791,23 +7845,23 @@
       <c r="B259" t="s">
         <v>285</v>
       </c>
-      <c r="C259" t="n">
-        <v>2010.0</v>
+      <c r="C259" t="s">
+        <v>343</v>
       </c>
       <c r="D259" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E259" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F259" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G259" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H259" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="260">
@@ -7817,23 +7871,23 @@
       <c r="B260" t="s">
         <v>286</v>
       </c>
-      <c r="C260" t="n">
-        <v>2007.0</v>
+      <c r="C260" t="s">
+        <v>345</v>
       </c>
       <c r="D260" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E260" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F260" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G260" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H260" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="261">
@@ -7843,23 +7897,23 @@
       <c r="B261" t="s">
         <v>287</v>
       </c>
-      <c r="C261" t="n">
-        <v>2010.0</v>
+      <c r="C261" t="s">
+        <v>343</v>
       </c>
       <c r="D261" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E261" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F261" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G261" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H261" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="262">
@@ -7869,23 +7923,23 @@
       <c r="B262" t="s">
         <v>288</v>
       </c>
-      <c r="C262" t="n">
-        <v>2011.0</v>
+      <c r="C262" t="s">
+        <v>349</v>
       </c>
       <c r="D262" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E262" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F262" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G262" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H262" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="263">
@@ -7895,23 +7949,23 @@
       <c r="B263" t="s">
         <v>289</v>
       </c>
-      <c r="C263" t="n">
-        <v>2010.0</v>
+      <c r="C263" t="s">
+        <v>343</v>
       </c>
       <c r="D263" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E263" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F263" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G263" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H263" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="264">
@@ -7921,23 +7975,23 @@
       <c r="B264" t="s">
         <v>290</v>
       </c>
-      <c r="C264" t="n">
-        <v>2010.0</v>
+      <c r="C264" t="s">
+        <v>343</v>
       </c>
       <c r="D264" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E264" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F264" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G264" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H264" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="265">
@@ -7947,23 +8001,23 @@
       <c r="B265" t="s">
         <v>291</v>
       </c>
-      <c r="C265" t="n">
-        <v>2010.0</v>
+      <c r="C265" t="s">
+        <v>343</v>
       </c>
       <c r="D265" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E265" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F265" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G265" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H265" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="266">
@@ -7973,23 +8027,23 @@
       <c r="B266" t="s">
         <v>292</v>
       </c>
-      <c r="C266" t="n">
-        <v>2010.0</v>
+      <c r="C266" t="s">
+        <v>343</v>
       </c>
       <c r="D266" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E266" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F266" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G266" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H266" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="267">
@@ -7999,23 +8053,23 @@
       <c r="B267" t="s">
         <v>293</v>
       </c>
-      <c r="C267" t="n">
-        <v>2009.0</v>
+      <c r="C267" t="s">
+        <v>350</v>
       </c>
       <c r="D267" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E267" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F267" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G267" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H267" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="268">
@@ -8025,23 +8079,23 @@
       <c r="B268" t="s">
         <v>294</v>
       </c>
-      <c r="C268" t="n">
-        <v>2010.0</v>
+      <c r="C268" t="s">
+        <v>343</v>
       </c>
       <c r="D268" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E268" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F268" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G268" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H268" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="269">
@@ -8051,23 +8105,23 @@
       <c r="B269" t="s">
         <v>295</v>
       </c>
-      <c r="C269" t="n">
-        <v>2012.0</v>
+      <c r="C269" t="s">
+        <v>344</v>
       </c>
       <c r="D269" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E269" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F269" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G269" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H269" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="270">
@@ -8077,23 +8131,23 @@
       <c r="B270" t="s">
         <v>296</v>
       </c>
-      <c r="C270" t="n">
-        <v>2010.0</v>
+      <c r="C270" t="s">
+        <v>343</v>
       </c>
       <c r="D270" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E270" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F270" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G270" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H270" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="271">
@@ -8103,23 +8157,23 @@
       <c r="B271" t="s">
         <v>297</v>
       </c>
-      <c r="C271" t="n">
-        <v>2010.0</v>
+      <c r="C271" t="s">
+        <v>343</v>
       </c>
       <c r="D271" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E271" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F271" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G271" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H271" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="272">
@@ -8129,23 +8183,23 @@
       <c r="B272" t="s">
         <v>298</v>
       </c>
-      <c r="C272" t="n">
-        <v>2009.0</v>
+      <c r="C272" t="s">
+        <v>350</v>
       </c>
       <c r="D272" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E272" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F272" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G272" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H272" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="273">
@@ -8155,23 +8209,23 @@
       <c r="B273" t="s">
         <v>299</v>
       </c>
-      <c r="C273" t="n">
-        <v>2010.0</v>
+      <c r="C273" t="s">
+        <v>343</v>
       </c>
       <c r="D273" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E273" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F273" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G273" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H273" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="274">
@@ -8181,23 +8235,23 @@
       <c r="B274" t="s">
         <v>300</v>
       </c>
-      <c r="C274" t="n">
-        <v>2010.0</v>
+      <c r="C274" t="s">
+        <v>343</v>
       </c>
       <c r="D274" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E274" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F274" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G274" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H274" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="275">
@@ -8207,23 +8261,23 @@
       <c r="B275" t="s">
         <v>301</v>
       </c>
-      <c r="C275" t="n">
-        <v>2010.0</v>
+      <c r="C275" t="s">
+        <v>343</v>
       </c>
       <c r="D275" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E275" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F275" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G275" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H275" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="276">
@@ -8233,23 +8287,23 @@
       <c r="B276" t="s">
         <v>302</v>
       </c>
-      <c r="C276" t="n">
-        <v>2011.0</v>
+      <c r="C276" t="s">
+        <v>349</v>
       </c>
       <c r="D276" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E276" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F276" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G276" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H276" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="277">
@@ -8259,23 +8313,23 @@
       <c r="B277" t="s">
         <v>303</v>
       </c>
-      <c r="C277" t="n">
-        <v>2011.0</v>
+      <c r="C277" t="s">
+        <v>349</v>
       </c>
       <c r="D277" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E277" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F277" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G277" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H277" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="278">
@@ -8285,23 +8339,23 @@
       <c r="B278" t="s">
         <v>304</v>
       </c>
-      <c r="C278" t="n">
-        <v>2009.0</v>
+      <c r="C278" t="s">
+        <v>350</v>
       </c>
       <c r="D278" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E278" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F278" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G278" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H278" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="279">
@@ -8311,23 +8365,23 @@
       <c r="B279" t="s">
         <v>310</v>
       </c>
-      <c r="C279" t="n">
-        <v>2012.0</v>
+      <c r="C279" t="s">
+        <v>344</v>
       </c>
       <c r="D279" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E279" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F279" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G279" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H279" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="280">
@@ -8337,23 +8391,23 @@
       <c r="B280" t="s">
         <v>311</v>
       </c>
-      <c r="C280" t="n">
-        <v>2009.0</v>
+      <c r="C280" t="s">
+        <v>350</v>
       </c>
       <c r="D280" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E280" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F280" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G280" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H280" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="281">
@@ -8363,23 +8417,23 @@
       <c r="B281" t="s">
         <v>313</v>
       </c>
-      <c r="C281" t="n">
-        <v>2015.0</v>
+      <c r="C281" t="s">
+        <v>336</v>
       </c>
       <c r="D281" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E281" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F281" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G281" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H281" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="282">
@@ -8389,23 +8443,23 @@
       <c r="B282" t="s">
         <v>314</v>
       </c>
-      <c r="C282" t="n">
-        <v>2009.0</v>
+      <c r="C282" t="s">
+        <v>350</v>
       </c>
       <c r="D282" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E282" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F282" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G282" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H282" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="283">
@@ -8415,23 +8469,23 @@
       <c r="B283" t="s">
         <v>316</v>
       </c>
-      <c r="C283" t="n">
-        <v>2015.0</v>
+      <c r="C283" t="s">
+        <v>336</v>
       </c>
       <c r="D283" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E283" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F283" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G283" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H283" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="284">
@@ -8441,23 +8495,23 @@
       <c r="B284" t="s">
         <v>318</v>
       </c>
-      <c r="C284" t="n">
-        <v>2007.0</v>
+      <c r="C284" t="s">
+        <v>345</v>
       </c>
       <c r="D284" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E284" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F284" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G284" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H284" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
